--- a/medicine/Médecine vétérinaire/Jean-Baptiste_Huzard_fils/Jean-Baptiste_Huzard_fils.xlsx
+++ b/medicine/Médecine vétérinaire/Jean-Baptiste_Huzard_fils/Jean-Baptiste_Huzard_fils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Huzard, né le 3 mars 1793 à Paris où il est mort le 5 avril 1878, est un vétérinaire français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de la libraire-éditrice Rosalie Huzard et du vétérinaire Jean-Baptiste Huzard, il embrassa la même profession que son père. Ayant suivi attentivement l'élevage du cheval, il étudia, en maintes publications, les méthodes de reproduction dans cette espèce et publia beaucoup d’articles de médecine vétérinaire dans le Nouveau dictionnaire d'histoire naturelle, dans le Nouveau cours d’agriculture, publié chez Déterville, et dans les Annales de l’agriculture française.
 Dès l’année 1819, il fut attaché au Conseil de Salubrité comme membre adjoint, ainsi qu’à la Société royale et centrale d'agriculture, de la Société philomathique de Paris, et de plusieurs Sociétés savantes départementales. Il devint membre de l’Académie de médecine en 1841 et de l’Académie royale des sciences de Turin.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice sur les chevaux anglais, et les courses de chevaux en Angleterre, Paris, Mme Huzard, 1817, in-8°.
 Recherches sur la construction du sabot du cheval, et suite des expériences sur les effets de la ferrure, traduit de l’anglais de Bracy Clark (en), Paris, Mme Huzard, 1817.Réimprimé sous le titre : De la structure du pied du cheval, et expériences sur les effets de la ferrure, in-8°, avec figures.
@@ -584,7 +600,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Victor de Moléon, Rapports généraux sur les travaux du Conseil de salubrité de la ville de Paris et du Département de la Seine, Paris, Bureau du Recueil industriel, 1828, 527 p. (lire en ligne), xxxv-xxxvj.</t>
         </is>
